--- a/simulations/cleaned_inclusion_exclusion/Oud_2018 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Oud_2018 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.6827731092436975</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="I3">
-        <v>0.09023605150214592</v>
+        <v>0.06947424892703863</v>
       </c>
       <c r="J3">
         <v>0.65</v>
       </c>
       <c r="K3">
-        <v>94.59999999999999</v>
+        <v>75.25</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -755,34 +755,34 @@
         <v>18</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R3">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="S3">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="T3">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="U3">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="V3">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="W3">
-        <v>896</v>
+        <v>915</v>
       </c>
       <c r="X3">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="Y3">
-        <v>852</v>
+        <v>871</v>
       </c>
       <c r="Z3">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="AA3">
         <v>18</v>
@@ -800,19 +800,19 @@
         <v>2</v>
       </c>
       <c r="AF3">
-        <v>0.9935619999999999</v>
+        <v>0.992489</v>
       </c>
       <c r="AG3">
-        <v>0.961373</v>
+        <v>0.98176</v>
       </c>
       <c r="AH3">
-        <v>0.947425</v>
+        <v>0.958155</v>
       </c>
       <c r="AI3">
-        <v>0.9141629999999999</v>
+        <v>0.934549</v>
       </c>
       <c r="AJ3">
-        <v>0.772532</v>
+        <v>0.781116</v>
       </c>
     </row>
   </sheetData>
